--- a/API DOC_1차 수정본.xlsx
+++ b/API DOC_1차 수정본.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>path</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>영화 추천</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정해주세요</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -287,6 +283,42 @@
   </si>
   <si>
     <t>{ "detail" : "Successfully logged out." }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;int:articlePk&gt;/comments/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendations/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -539,6 +571,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +670,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -948,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,15 +1013,15 @@
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -982,18 +1032,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1002,16 +1055,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -1023,13 +1079,16 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -1038,16 +1097,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="G6" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -1056,16 +1118,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1079,13 +1144,16 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -1094,16 +1162,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1112,16 +1183,19 @@
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
@@ -1130,16 +1204,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
@@ -1148,7 +1225,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1156,11 +1233,14 @@
       <c r="F12" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="13" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>8</v>
@@ -1169,13 +1249,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1189,13 +1272,16 @@
         <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="14" t="s">
         <v>31</v>
@@ -1204,16 +1290,19 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>32</v>
@@ -1222,16 +1311,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>32</v>
@@ -1240,7 +1332,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>31</v>
@@ -1248,26 +1340,32 @@
       <c r="F17" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>36</v>
@@ -1276,16 +1374,19 @@
         <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
         <v>36</v>
@@ -1294,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>31</v>
@@ -1302,8 +1403,11 @@
       <c r="F20" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
   </sheetData>

--- a/API DOC_1차 수정본.xlsx
+++ b/API DOC_1차 수정본.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kys\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\July\ssafy7\pjt\final-pjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C4A7A-3D60-4503-BE47-742E9D970067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="38290" yWindow="3810" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>path</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -210,91 +201,95 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>movies(movie(pk,title)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>articlePk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie(pk, title… 주고싶은거)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>newVote(vote_rate, content, movie_pk)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote_pk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>newArticle(title, content)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>articlePk, content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>article(보내주고싶은것들)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote_rate, content, movie_pk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote_pk, vote_rate, content, movie_pk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentsPk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>title, content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/api/v1/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "detail" : "Successfully logged out." }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
     <t>username</t>
-  </si>
-  <si>
-    <t>movies(movie(pk,title)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>articlePk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie(pk, title… 주고싶은거)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>newVote(vote_rate, content, movie_pk)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote_pk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>articles(보내주고싶은것들)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>newArticle(title, content)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>articlePk, content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>article(보내주고싶은것들)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>votes(vote(pk,rating, comment, movie_pk)), 
-articles(article(pk,title,movie_title)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote_rate, content, movie_pk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote_pk, vote_rate, content, movie_pk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentPk, articlePk, content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentsPk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>title, content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8000/api/v1/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>accounts/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "detail" : "Successfully logged out." }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pk', 'username', 'email', 'like_articles', 'articles(article(pk,title,content,created_at)',
+votes(vote(pk,rating, comment, movie_pk)), </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>articles(article('pk','user','title','content', 'comments','created_at'</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,11 +619,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -947,31 +942,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -991,9 +986,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1011,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -1023,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -1047,7 +1042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="32">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -1056,16 +1051,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1079,13 +1074,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -1094,16 +1089,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1112,16 +1107,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
@@ -1130,16 +1125,16 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
@@ -1148,7 +1143,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1157,7 +1152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="13" t="s">
         <v>38</v>
@@ -1169,13 +1164,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1189,13 +1184,13 @@
         <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="14" t="s">
         <v>31</v>
@@ -1204,112 +1199,126 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+    <row r="21" spans="1:6" ht="30" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="D21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+    <row r="22" spans="1:6">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/API DOC_1차 수정본.xlsx
+++ b/API DOC_1차 수정본.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kys\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kys\ssafy7\pjt\final-pjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
